--- a/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.32</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.97</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.08</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.68</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.56</v>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1.24</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="5">
@@ -1783,13 +1954,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.14</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +1965,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.68</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="4">
@@ -1938,14 +2071,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>3.56</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="5">
@@ -1954,14 +2087,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.24</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="6">
@@ -1970,13 +2103,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5942</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2204,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.68</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5">
@@ -2087,14 +2220,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>3.56</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6">
@@ -2103,14 +2236,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.24</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="7">
@@ -2119,13 +2252,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8271</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2438</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D4" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D7" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>2.11</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -688,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.82</t>
+          <t>20.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1975</t>
+          <t>1.5942</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -726,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.5198</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -754,6 +732,308 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -820,26 +1100,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.34</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7104</t>
+          <t>1.0814</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -848,32 +1128,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>009891</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>融通产业趋势臻选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1569</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -886,36 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009891</t>
+          <t>008445</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通产业趋势臻选股票</t>
+          <t>融通产业趋势先锋股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3757</t>
+          <t>0.1053</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -924,36 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008445</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通产业趋势先锋股票</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1242</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -972,26 +1252,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0653</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1000,36 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004558</t>
+          <t>001007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合A</t>
+          <t>国联安鑫安灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1048,26 +1328,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1076,36 +1356,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007527</t>
+          <t>004076</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合A</t>
+          <t>国联安锐意成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1114,36 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009273</t>
+          <t>007527</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通中国风1号灵活配置混合C</t>
+          <t>融通量化多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1152,36 +1432,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007528</t>
+          <t>009273</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合C</t>
+          <t>融通中国风1号灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1190,36 +1470,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004559</t>
+          <t>007528</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合C</t>
+          <t>融通量化多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1294,26 +1574,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.70</t>
+          <t>40.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0814</t>
+          <t>1.7104</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1322,32 +1602,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009891</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通产业趋势臻选股票</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1960</t>
+          <t>1.1569</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1360,36 +1640,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008445</t>
+          <t>009891</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通产业趋势先锋股票</t>
+          <t>融通产业趋势臻选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1053</t>
+          <t>0.3757</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1398,36 +1678,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>008445</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>融通产业趋势先锋股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.1242</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1446,26 +1726,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0883</t>
+          <t>0.0653</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1474,36 +1754,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001007</t>
+          <t>004558</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安鑫安灵活配置混合</t>
+          <t>汇安丰裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.53</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0333</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1522,26 +1802,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1550,36 +1830,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004076</t>
+          <t>007527</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国联安锐意成长混合</t>
+          <t>融通量化多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.0204</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1588,36 +1868,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007527</t>
+          <t>009273</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合A</t>
+          <t>融通中国风1号灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1626,36 +1906,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009273</t>
+          <t>007528</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>融通中国风1号灵活配置混合C</t>
+          <t>融通量化多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1664,338 +1944,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007528</t>
+          <t>004559</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合C</t>
+          <t>汇安丰裕灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0489</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0863</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004641</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家量化睿选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0832</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2237</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2008,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2070,26 +2048,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5942</t>
+          <t>1.1975</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2108,26 +2086,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5198</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2141,144 +2119,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.11</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.11</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.31</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.68</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>3.56</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.24</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.11</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5942</t>
+          <t>1.3199</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5198</t>
+          <t>1.0284</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -798,26 +815,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.30</t>
+          <t>20.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0832</t>
+          <t>1.5942</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -836,26 +853,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2237</t>
+          <t>0.5198</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -864,6 +881,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1026,480 +1175,6 @@
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001852</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>26.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0814</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009891</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通产业趋势臻选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1960</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008445</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通产业趋势先锋股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1053</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001479</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮风格轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0883</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国联安鑫安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007261</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>融通消费升级混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004076</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国联安锐意成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007527</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>融通量化多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009273</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007528</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>融通量化多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1574,26 +1249,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.34</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7104</t>
+          <t>1.0814</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1602,32 +1277,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>009891</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>融通产业趋势臻选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1569</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1640,36 +1315,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009891</t>
+          <t>008445</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通产业趋势臻选股票</t>
+          <t>融通产业趋势先锋股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3757</t>
+          <t>0.1053</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1678,36 +1353,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008445</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通产业趋势先锋股票</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1242</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1726,26 +1401,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0653</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1754,36 +1429,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004558</t>
+          <t>001007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合A</t>
+          <t>国联安鑫安灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1802,26 +1477,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1830,36 +1505,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007527</t>
+          <t>004076</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合A</t>
+          <t>国联安锐意成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1868,36 +1543,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009273</t>
+          <t>007527</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通中国风1号灵活配置混合C</t>
+          <t>融通量化多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1906,36 +1581,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007528</t>
+          <t>009273</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合C</t>
+          <t>融通中国风1号灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1944,36 +1619,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004559</t>
+          <t>007528</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合C</t>
+          <t>融通量化多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1982,6 +1657,480 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2113,7 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300149-睿智医药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.11</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.68</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>3.56</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>1.24</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +860,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>49.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3199</t>
+          <t>1.2597</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +898,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>41.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0284</t>
+          <t>1.0500</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -815,26 +1002,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5942</t>
+          <t>1.3199</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -853,26 +1040,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5198</t>
+          <t>1.0284</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -947,26 +1134,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.30</t>
+          <t>20.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0832</t>
+          <t>1.5942</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -985,26 +1172,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2237</t>
+          <t>0.5198</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1013,6 +1200,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1175,480 +1494,6 @@
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001852</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>26.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0814</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009891</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通产业趋势臻选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1960</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008445</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通产业趋势先锋股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1053</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001479</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮风格轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0883</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国联安鑫安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007261</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>融通消费升级混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004076</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国联安锐意成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007527</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>融通量化多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009273</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007528</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>融通量化多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1723,26 +1568,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.34</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7104</t>
+          <t>1.0814</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1751,32 +1596,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>009891</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>融通产业趋势臻选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1569</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1789,36 +1634,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009891</t>
+          <t>008445</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通产业趋势臻选股票</t>
+          <t>融通产业趋势先锋股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3757</t>
+          <t>0.1053</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1827,36 +1672,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008445</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通产业趋势先锋股票</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1242</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1875,26 +1720,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0653</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1903,36 +1748,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004558</t>
+          <t>001007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合A</t>
+          <t>国联安鑫安灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1951,26 +1796,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1979,36 +1824,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007527</t>
+          <t>004076</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合A</t>
+          <t>国联安锐意成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2017,36 +1862,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009273</t>
+          <t>007527</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通中国风1号灵活配置混合C</t>
+          <t>融通量化多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2055,36 +1900,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007528</t>
+          <t>009273</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合C</t>
+          <t>融通中国风1号灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2093,36 +1938,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004559</t>
+          <t>007528</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合C</t>
+          <t>融通量化多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2131,6 +1976,480 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2260,174 +2579,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8271</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2438</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>